--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1596844.415354548</v>
+        <v>1672374.085019354</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>132.6301997610084</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>107.5648922361045</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>54.70191565295202</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>81.80445351869594</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>383.2002805830803</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>150.7761107361272</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>83.58354151325305</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>20.24586684424288</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>172.0702865535877</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>186.3676115384765</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.465802816548228</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>213.8524658611806</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>101.1426547140132</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>101.1426547140133</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>148.9331594064104</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>145.3941630732811</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.829735943275</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2134,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,10 +2487,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>41.92656778835438</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>64.3419076393841</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>26.97444673954966</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>2.496989041810872</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>66.140852155354</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>60.83974965596519</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3247,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>194.05758197826</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3661,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>93.99419751563556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3791,7 +3793,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>81.90355835744664</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>128.2693160379187</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>66.87635383915799</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.875667274027</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2533.46899524962</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2533.46899524962</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2279.707209887712</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1948.644322544141</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1595.875667274027</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>1595.875667274027</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y2" t="n">
-        <v>1595.875667274027</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="3">
@@ -4410,28 +4412,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>616.0813039300605</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>388.7731165986622</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>99.5995062532301</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V4" t="n">
-        <v>99.5995062532301</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="W4" t="n">
-        <v>99.5995062532301</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="X4" t="n">
-        <v>99.5995062532301</v>
+        <v>154.8539665087372</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>154.8539665087372</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1718.448825665084</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="C5" t="n">
-        <v>1718.448825665084</v>
+        <v>1546.92347107711</v>
       </c>
       <c r="D5" t="n">
-        <v>1718.448825665084</v>
+        <v>1188.657772470359</v>
       </c>
       <c r="E5" t="n">
-        <v>1332.660573066839</v>
+        <v>1188.657772470359</v>
       </c>
       <c r="F5" t="n">
-        <v>921.6746682772318</v>
+        <v>777.6718676807518</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>359.7080595789387</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.514423990285</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>2105.048665729205</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>2105.048665729205</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,10 +4649,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>643.7011644960776</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>643.7011644960776</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>389.0166762901907</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1912.197604328644</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>1543.235087388232</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>1184.969388781481</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>799.1811361832372</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304455</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2302.336936304455</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="X8" t="n">
-        <v>2302.336936304455</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y8" t="n">
-        <v>1912.197604328644</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224.4233909876363</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>224.4233909876363</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
         <v>222.942782082032</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W10" t="n">
-        <v>224.4233909876363</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X10" t="n">
-        <v>224.4233909876363</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.4233909876363</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5057,10 +5059,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5081,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5124,16 +5126,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.3109288932102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3747459653033</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>1396.75197286698</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>1175.95939372345</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,7 +5281,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5318,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1096.475226584133</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>927.5390436562259</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>777.4224042438901</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>629.509310661497</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.123691414372</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5546,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5595,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.2811958984813</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="G19" t="n">
         <v>359.1696912903951</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1395.04785041318</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1395.04785041318</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1395.04785041318</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1105.919211626738</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1105.919211626738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>1105.919211626738</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X19" t="n">
-        <v>877.929660728721</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y19" t="n">
-        <v>877.929660728721</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,16 +5737,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,7 +5755,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5834,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>485.4047026089419</v>
+        <v>559.3999450277973</v>
       </c>
       <c r="L21" t="n">
-        <v>732.1698305154059</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M21" t="n">
-        <v>1039.489963795367</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,16 +6001,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4230.423978142506</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C25" t="n">
-        <v>4061.487795214599</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D25" t="n">
-        <v>3911.371155802263</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E25" t="n">
-        <v>3763.45806221987</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>3763.45806221987</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746785</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014292</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="V25" t="n">
-        <v>4860.854573014292</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="W25" t="n">
-        <v>4860.854573014292</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="X25" t="n">
-        <v>4632.865022116275</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y25" t="n">
-        <v>4412.072442972745</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,16 +6238,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6306,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4833.607657115757</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4633.68764703131</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4633.68764703131</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4633.68764703131</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>4379.003158825423</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>4089.585988788463</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>3861.596437890445</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>3640.803858746915</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,37 +6475,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>3443.999848753676</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>3751.319982033638</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>4081.182609697671</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>268.6754855415371</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C31" t="n">
-        <v>99.73930261363014</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D31" t="n">
-        <v>99.73930261363014</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E31" t="n">
-        <v>99.73930261363014</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F31" t="n">
-        <v>99.73930261363014</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>314.4440414834072</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>164.0260330313505</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473451</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262957</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>786.082206476515</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>786.082206476515</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>496.6650364395544</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X31" t="n">
-        <v>268.6754855415371</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y31" t="n">
-        <v>268.6754855415371</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,40 +6685,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6734,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>592.8217113586352</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>270.2059754201214</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>270.2059754201214</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>270.2059754201214</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>270.2059754201214</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324571</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6956,7 +6958,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>991.90339746128</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>737.2189092553931</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>447.8017392184324</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>447.8017392184324</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7208,13 +7210,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7251,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>773.166147484815</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>604.2299645569082</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>454.1133251445724</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>454.1133251445724</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>454.1133251445724</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7363,19 +7365,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150548</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>954.8146123150548</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>954.8146123150548</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7421,13 +7423,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7494,16 +7496,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1416.185403530179</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1416.185403530179</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1192.399988319684</v>
       </c>
       <c r="U43" t="n">
-        <v>1258.27620142486</v>
+        <v>903.2713495332425</v>
       </c>
       <c r="V43" t="n">
-        <v>1003.591713218973</v>
+        <v>648.5868613273557</v>
       </c>
       <c r="W43" t="n">
-        <v>714.1745431820127</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X43" t="n">
-        <v>486.1849922839954</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y43" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="44">
@@ -7625,67 +7627,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>333.7051469529988</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>164.7689640250919</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>164.7689640250919</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>164.7689640250919</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>164.7689640250919</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>964.135741824786</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>736.1461909267687</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>515.3536117832385</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8711,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8939,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9170,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9243,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>87.16935584025424</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>73.53204524670085</v>
+        <v>148.2747143566559</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,10 +9491,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776733</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>182.0340742867951</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>412.6002929596431</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11142,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11373,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>124.5670006750239</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>44.2783933089179</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>137.304192992167</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>21.09940539009648</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.134616460517805</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,19 +23946,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>124.5670006750232</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>133.5789023442192</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24427,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>82.98990566424314</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9965794215667</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>44.27839330891798</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>88.07407871157093</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>92.17977042031734</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>72.49937094774202</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>28.06079404634616</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>157.9680363606586</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>99.6172146242196</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>915460.0742370032</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>915460.0742370032</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370035</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651774</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651774</v>
       </c>
       <c r="E2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="G2" t="n">
         <v>488786.3246721359</v>
@@ -26332,28 +26334,28 @@
         <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="L2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="M2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="N2" t="n">
         <v>488786.324672136</v>
       </c>
       <c r="O2" t="n">
-        <v>488786.3246721361</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,31 +26426,31 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="F4" t="n">
         <v>36432.48351773396</v>
-      </c>
-      <c r="F4" t="n">
-        <v>36432.48351773395</v>
       </c>
       <c r="G4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="K4" t="n">
+        <v>36432.48351773393</v>
+      </c>
+      <c r="L4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="L4" t="n">
-        <v>36432.48351773396</v>
-      </c>
       <c r="M4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="N4" t="n">
         <v>36432.48351773396</v>
@@ -26457,7 +26459,7 @@
         <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26488,13 +26490,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26509,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-343024.5379699051</v>
+        <v>-343024.5379699049</v>
       </c>
       <c r="C6" t="n">
-        <v>246943.3412446393</v>
+        <v>246943.3412446399</v>
       </c>
       <c r="D6" t="n">
-        <v>246943.3412446394</v>
+        <v>246943.3412446399</v>
       </c>
       <c r="E6" t="n">
-        <v>-164793.5212712108</v>
+        <v>-164793.5212712107</v>
       </c>
       <c r="F6" t="n">
-        <v>360366.5152056853</v>
+        <v>360366.5152056854</v>
       </c>
       <c r="G6" t="n">
-        <v>360366.5152056853</v>
+        <v>360366.5152056854</v>
       </c>
       <c r="H6" t="n">
         <v>360366.5152056853</v>
       </c>
       <c r="I6" t="n">
-        <v>360366.5152056854</v>
+        <v>360366.5152056853</v>
       </c>
       <c r="J6" t="n">
         <v>183943.2960130924</v>
       </c>
       <c r="K6" t="n">
-        <v>360366.5152056852</v>
+        <v>360366.5152056854</v>
       </c>
       <c r="L6" t="n">
-        <v>360366.5152056852</v>
+        <v>360366.5152056854</v>
       </c>
       <c r="M6" t="n">
-        <v>225565.4999718483</v>
+        <v>225565.4999718482</v>
       </c>
       <c r="N6" t="n">
-        <v>360366.5152056854</v>
+        <v>360366.5152056855</v>
       </c>
       <c r="O6" t="n">
-        <v>360366.5152056855</v>
+        <v>360366.5152056853</v>
       </c>
       <c r="P6" t="n">
         <v>360366.5152056853</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26756,13 +26758,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>281.1539702597867</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>66.85082057286699</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>125.1300645289853</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>130.341085431323</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>30.58388943771473</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>173.1466620282299</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>141.4515639448312</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>198.3387865078519</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>234.8057591881237</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>162.8733571789365</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>147.1496702016641</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>72.67053247541037</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,7 +35494,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35504,7 +35506,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35659,7 +35661,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35890,7 +35892,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35963,13 +35965,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35978,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>294.2627707717789</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36200,7 +36202,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>224.1074838346401</v>
+        <v>298.8501529445951</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36209,10 +36211,10 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315246</v>
@@ -36221,7 +36223,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336976</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006117972</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,10 +37150,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>332.6095128747343</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37163,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>745.7948663576559</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,7 +37800,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349808</v>
@@ -37862,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1672374.085019354</v>
+        <v>1665357.070127642</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>132.6301997610084</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>79.49282700064516</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,10 +709,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.70191565295202</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>261.9025067912345</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>325.9002695577313</v>
       </c>
       <c r="H5" t="n">
-        <v>150.7761107361272</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>7.634490799661691</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.24586684424288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>307.1861186321483</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>186.3676115384765</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>213.8524658611806</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>109.9634471783212</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278749997</v>
       </c>
       <c r="U16" t="n">
-        <v>148.9331594064104</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>145.3941630732811</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>13.20582228581601</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>64.3419076393841</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>170.5809693952292</v>
       </c>
       <c r="U28" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>66.140852155354</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>60.83974965596519</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>70.9985384673481</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>81.90355835744664</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>66.87635383915799</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396425115</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1865.381229508782</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C2" t="n">
-        <v>1496.41871256837</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="D2" t="n">
-        <v>1138.15301396162</v>
+        <v>1502.442708164076</v>
       </c>
       <c r="E2" t="n">
-        <v>752.3647613633757</v>
+        <v>1116.654455565832</v>
       </c>
       <c r="F2" t="n">
-        <v>341.3788565737681</v>
+        <v>705.6685507762245</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>287.7047426744114</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>2251.981069572904</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>154.8539665087372</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X4" t="n">
-        <v>154.8539665087372</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>154.8539665087372</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1915.885988017521</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="C5" t="n">
-        <v>1546.92347107711</v>
+        <v>1333.375306685582</v>
       </c>
       <c r="D5" t="n">
-        <v>1188.657772470359</v>
+        <v>1333.375306685582</v>
       </c>
       <c r="E5" t="n">
-        <v>1188.657772470359</v>
+        <v>947.5870540873382</v>
       </c>
       <c r="F5" t="n">
-        <v>777.6718676807518</v>
+        <v>536.6011492977307</v>
       </c>
       <c r="G5" t="n">
-        <v>359.7080595789387</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1915.885988017521</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>720.4173773380891</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>720.4173773380891</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>720.4173773380891</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>720.4173773380891</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>720.4173773380891</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>720.4173773380891</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>720.4173773380891</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714565</v>
+        <v>720.4173773380891</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>720.4173773380891</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>782.1957986415193</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>364.2319905397062</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2122.807401540017</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1749.341643278937</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.341643278937</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,31 +5059,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115524</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>506.3210135240261</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>506.3210135240261</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>356.2043741116903</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.2912805292972</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.2912805292972</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>727.1135926675562</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>506.3210135240261</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790661</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.23751609332</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1037.48362228133</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>782.7991340754431</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>493.3819640384826</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>1427.741252113633</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2037.143944996363</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.0324822735073</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C19" t="n">
-        <v>506.0324822735073</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D19" t="n">
-        <v>506.0324822735073</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0324822735073</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>506.0324822735073</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1285.657046043337</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>996.5284072568953</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>741.8439190510085</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>741.8439190510085</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170374</v>
+        <v>741.8439190510085</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.0324822735073</v>
+        <v>741.8439190510085</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,13 +5737,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5773,7 +5773,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>559.3999450277973</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>806.1650729342614</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
-        <v>1113.485206214223</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1443.347833878256</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,34 +5968,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823795</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6150,19 +6150,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1322.84934122136</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1322.84934122136</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1322.84934122136</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1322.84934122136</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1322.84934122136</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6229,7 +6229,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U28" t="n">
-        <v>1271.749344574921</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,16 +6475,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3443.999848753676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3751.319982033638</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1096.475226584133</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>927.5390436562259</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>777.4224042438901</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>629.509310661497</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>482.6193631635866</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>314.4440414834072</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>164.0260330313505</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>1278.123691414372</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028562</v>
@@ -6703,7 +6703,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>270.2059754201214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>270.2059754201214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>270.2059754201214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>270.2059754201214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>420.3226148324571</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6958,7 +6958,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>821.846685011157</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>1003.495149841397</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>1003.495149841397</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>1003.495149841397</v>
       </c>
     </row>
     <row r="38">
@@ -7216,7 +7216,7 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7496,16 +7496,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1416.185403530179</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1416.185403530179</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1192.399988319684</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>903.2713495332425</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>648.5868613273557</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>359.1696912903951</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>333.7051469529988</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>164.7689640250919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>164.7689640250919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>164.7689640250919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>164.7689640250919</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>964.135741824786</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>964.135741824786</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>736.1461909267687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>515.3536117832385</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298301</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>29.47535963978325</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>87.16935584025424</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>148.2747143566559</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720747</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776733</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>412.6002929596431</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>56.53012128505635</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338955</v>
       </c>
       <c r="U16" t="n">
-        <v>137.304192992167</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>21.09940539009648</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>208.3417387725733</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>133.5789023442192</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>50.96659166316005</v>
       </c>
       <c r="U28" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>44.27839330891798</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>88.07407871157093</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>103.0576765518773</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>215.5244598692429</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>28.06079404634616</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>99.6172146242196</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>192.3581855871781</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370035</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370032</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370031</v>
       </c>
     </row>
     <row r="8">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721357</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="K2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="L2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="M2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721361</v>
       </c>
       <c r="O2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,34 +26423,34 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="F4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="N4" t="n">
         <v>36432.48351773396</v>
@@ -26459,7 +26459,7 @@
         <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
     </row>
     <row r="5">
@@ -26478,25 +26478,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-343024.5379699049</v>
+        <v>-343024.5379699047</v>
       </c>
       <c r="C6" t="n">
-        <v>246943.3412446399</v>
+        <v>246943.3412446391</v>
       </c>
       <c r="D6" t="n">
-        <v>246943.3412446399</v>
+        <v>246943.3412446397</v>
       </c>
       <c r="E6" t="n">
-        <v>-164793.5212712107</v>
+        <v>-165768.1125309322</v>
       </c>
       <c r="F6" t="n">
-        <v>360366.5152056854</v>
+        <v>359391.9239459635</v>
       </c>
       <c r="G6" t="n">
-        <v>360366.5152056854</v>
+        <v>359391.9239459636</v>
       </c>
       <c r="H6" t="n">
-        <v>360366.5152056853</v>
+        <v>359391.9239459636</v>
       </c>
       <c r="I6" t="n">
-        <v>360366.5152056853</v>
+        <v>359391.9239459636</v>
       </c>
       <c r="J6" t="n">
-        <v>183943.2960130924</v>
+        <v>182968.7047533706</v>
       </c>
       <c r="K6" t="n">
-        <v>360366.5152056854</v>
+        <v>359391.9239459638</v>
       </c>
       <c r="L6" t="n">
-        <v>360366.5152056854</v>
+        <v>359391.9239459636</v>
       </c>
       <c r="M6" t="n">
-        <v>225565.4999718482</v>
+        <v>224590.9087121267</v>
       </c>
       <c r="N6" t="n">
-        <v>360366.5152056855</v>
+        <v>359391.9239459638</v>
       </c>
       <c r="O6" t="n">
-        <v>360366.5152056853</v>
+        <v>359391.9239459637</v>
       </c>
       <c r="P6" t="n">
-        <v>360366.5152056853</v>
+        <v>359391.9239459637</v>
       </c>
     </row>
   </sheetData>
@@ -26740,31 +26740,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>281.1539702597867</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>244.429945763712</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125.1300645289853</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27593,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>24.62049154535646</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>87.8839004630637</v>
       </c>
       <c r="H5" t="n">
-        <v>173.1466620282299</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>21.48825915525261</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.3387865078519</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>16.73665413220886</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>162.8733571789365</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>72.67053247541037</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28526,7 +28526,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,43 +32071,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,43 +32308,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32557,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32566,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32879,10 +32879,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951475</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>236.5687745713078</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35822,10 +35822,10 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006117969</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P18" t="n">
-        <v>294.2627707717789</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>298.8501529445951</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415088</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336976</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>745.7948663576559</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1665357.070127642</v>
+        <v>1670296.332976674</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>106.7489988643977</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>79.49282700064516</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>70.26541886851864</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>261.9025067912345</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>339.7041571996402</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>325.9002695577313</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.634490799661691</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>232.5467951020192</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>307.1861186321483</v>
+        <v>159.562370971079</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544548</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686235</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>109.9634471783212</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278749997</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>13.20582228581601</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>122.6519788371599</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>62.4604100148933</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>170.5809693952292</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -3003,10 +3003,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,10 +3441,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.8897809457133</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>70.9985384673481</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>169.8277167599788</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3793,7 +3793,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.36919139161152</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,10 +3957,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.562624396425115</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>192.6211591710424</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1860.708406770827</v>
+        <v>1857.168914859137</v>
       </c>
       <c r="C2" t="n">
-        <v>1860.708406770827</v>
+        <v>1857.168914859137</v>
       </c>
       <c r="D2" t="n">
-        <v>1502.442708164076</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1116.654455565832</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>705.6685507762245</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>287.7047426744114</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4375,7 +4375,7 @@
         <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>657.1538136321732</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="W4" t="n">
-        <v>463.5809975486215</v>
+        <v>429.8456263007749</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1702.337823625994</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="C5" t="n">
-        <v>1333.375306685582</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="D5" t="n">
-        <v>1333.375306685582</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>947.5870540873382</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>536.6011492977307</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4612,7 +4612,7 @@
         <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>538.7689125078493</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8327295799424</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>720.4173773380891</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>720.4173773380891</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>720.4173773380891</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>720.4173773380891</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>720.4173773380891</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>720.4173773380891</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="W7" t="n">
-        <v>720.4173773380891</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="X7" t="n">
-        <v>720.4173773380891</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y7" t="n">
-        <v>720.4173773380891</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>2310.549250954101</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037877</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>1583.321035406939</v>
       </c>
       <c r="E8" t="n">
-        <v>1193.181703431127</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F8" t="n">
-        <v>782.1957986415193</v>
+        <v>786.546878019087</v>
       </c>
       <c r="G8" t="n">
-        <v>364.2319905397062</v>
+        <v>368.5830699172739</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359519</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355875</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5108,13 +5108,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028583</v>
@@ -5123,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277031</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.542980734167</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.3210135240261</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>506.3210135240261</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>356.2043741116903</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>208.2912805292972</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>208.2912805292972</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028583</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>955.1031435655735</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>727.1135926675562</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.3210135240261</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277031</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.542980734167</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126628</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790661</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2302.23751609332</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,58 +5412,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473451</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
         <v>1158.436939387592</v>
@@ -5478,10 +5478,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,22 +5533,22 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
@@ -5591,16 +5591,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643586</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1285.657046043337</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>996.5284072568953</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>741.8439190510085</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>741.8439190510085</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>741.8439190510085</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>741.8439190510085</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5743,19 +5743,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5776,7 +5776,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
     <row r="23">
@@ -5968,46 +5968,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823795</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6068,13 +6068,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643586</v>
@@ -6150,19 +6150,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6208,22 +6208,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>795.449652310468</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>626.5134693825611</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>476.3968299702253</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>328.4837363878322</v>
       </c>
       <c r="F28" t="n">
         <v>265.3924131404652</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1326.612261067772</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1037.48362228133</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>782.7991340754431</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>493.3819640384826</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X28" t="n">
-        <v>265.3924131404652</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3924131404652</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="29">
@@ -6451,46 +6451,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6548,16 +6548,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6651,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6688,46 +6688,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>821.846685011157</v>
+        <v>870.4344461847497</v>
       </c>
       <c r="C37" t="n">
-        <v>821.846685011157</v>
+        <v>701.4982632568428</v>
       </c>
       <c r="D37" t="n">
-        <v>671.7300455988212</v>
+        <v>701.4982632568428</v>
       </c>
       <c r="E37" t="n">
-        <v>523.8169520164281</v>
+        <v>553.5851696744497</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185177</v>
+        <v>406.6952221765393</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>238.51990049636</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V37" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W37" t="n">
-        <v>1003.495149841397</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X37" t="n">
-        <v>1003.495149841397</v>
+        <v>870.4344461847497</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.495149841397</v>
+        <v>870.4344461847497</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1327.3731223155</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>783.5599953231708</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>494.1428252862102</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7408,13 +7408,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,40 +7423,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7496,16 +7496,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1409.654461071426</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1409.654461071426</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1185.869045860932</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>896.7404070744901</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>642.0559188686033</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>642.0559188686033</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515098</v>
@@ -7663,37 +7663,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,16 +8771,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229594</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298301</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>29.47535963978325</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.409182577676</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720747</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>56.53012128505635</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>79.43092547709131</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338955</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>208.3417387725733</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>43.84158962621764</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338567</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>82.96063800803795</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>50.96659166316005</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>9.024047421822786</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>215.5244598692429</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>51.71984429841046</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642685</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>21.59516101218128</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>192.3581855871781</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915460.0742370035</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915460.0742370032</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>915460.0742370031</v>
+        <v>915460.0742370033</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370035</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370035</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370036</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>915460.0742370033</v>
+        <v>915460.0742370035</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651765</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="E2" t="n">
+        <v>488786.3246721357</v>
+      </c>
+      <c r="F2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="F2" t="n">
-        <v>488786.3246721357</v>
-      </c>
       <c r="G2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.324672136</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="L2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="M2" t="n">
+        <v>488786.3246721361</v>
+      </c>
+      <c r="N2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="O2" t="n">
         <v>488786.324672136</v>
       </c>
-      <c r="L2" t="n">
-        <v>488786.3246721358</v>
-      </c>
-      <c r="M2" t="n">
-        <v>488786.324672136</v>
-      </c>
-      <c r="N2" t="n">
-        <v>488786.3246721361</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="P2" t="n">
-        <v>488786.324672136</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="H4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="J4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="K4" t="n">
         <v>36432.48351773396</v>
@@ -26459,7 +26459,7 @@
         <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26475,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-343024.5379699047</v>
+        <v>-343024.5379699051</v>
       </c>
       <c r="C6" t="n">
-        <v>246943.3412446391</v>
+        <v>246943.3412446398</v>
       </c>
       <c r="D6" t="n">
-        <v>246943.3412446397</v>
+        <v>246943.3412446399</v>
       </c>
       <c r="E6" t="n">
-        <v>-165768.1125309322</v>
+        <v>-164890.980397183</v>
       </c>
       <c r="F6" t="n">
-        <v>359391.9239459635</v>
+        <v>360269.0560797131</v>
       </c>
       <c r="G6" t="n">
-        <v>359391.9239459636</v>
+        <v>360269.0560797133</v>
       </c>
       <c r="H6" t="n">
-        <v>359391.9239459636</v>
+        <v>360269.0560797131</v>
       </c>
       <c r="I6" t="n">
-        <v>359391.9239459636</v>
+        <v>360269.0560797132</v>
       </c>
       <c r="J6" t="n">
-        <v>182968.7047533706</v>
+        <v>183845.8368871203</v>
       </c>
       <c r="K6" t="n">
-        <v>359391.9239459638</v>
+        <v>360269.0560797131</v>
       </c>
       <c r="L6" t="n">
-        <v>359391.9239459636</v>
+        <v>360269.0560797131</v>
       </c>
       <c r="M6" t="n">
-        <v>224590.9087121267</v>
+        <v>225468.0408458762</v>
       </c>
       <c r="N6" t="n">
-        <v>359391.9239459638</v>
+        <v>360269.0560797131</v>
       </c>
       <c r="O6" t="n">
-        <v>359391.9239459637</v>
+        <v>360269.0560797132</v>
       </c>
       <c r="P6" t="n">
-        <v>359391.9239459637</v>
+        <v>360269.0560797132</v>
       </c>
     </row>
   </sheetData>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>247.9340427562852</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>244.429945763712</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>141.8801200815003</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>24.62049154535646</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>14.97888442104278</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>87.8839004630637</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>21.48825915525261</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>19.59084822180884</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>16.73665413220886</v>
+        <v>164.3604017932781</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831824</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060689</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28526,7 +28526,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30638,7 +30638,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3.487817442267745e-12</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31755,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,43 +32071,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,43 +32308,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32557,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32566,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,10 +32782,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
@@ -32794,7 +32794,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
@@ -32803,10 +32803,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32882,7 +32882,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,10 +32894,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734255</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415662</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>236.5687745713078</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507405</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35822,10 +35822,10 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006117969</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415088</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36688,10 +36688,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
